--- a/data/trans_dic/P7C_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P7C_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas &lt; 6 años</t>
+          <t>Hogares con personas &lt; 6 años (tasa de respuesta: 99,67%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>55,29%</t>
+          <t>24,08%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>43,27%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>49,74%</t>
+          <t>8,01%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>9,46%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>8,43%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>8,02%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>16,32%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,17; 18,17</t>
+          <t>3,89; 15,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,21; 27,78</t>
+          <t>4,4; 15,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,34; 24,16</t>
+          <t>5,52; 13,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,92; 13,7</t>
+          <t>5,52; 11,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>43,47; 65,39</t>
+          <t>11,54; 47,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 9,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,04; 12,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,6; 12,32</t>
+          <t>3,12; 14,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,65; 10,63</t>
+          <t>5,46; 16,5</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>32,47; 54,59</t>
+          <t>5,04; 11,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,87; 11,51</t>
+          <t>5,3; 11,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,75; 17,86</t>
+          <t>5,15; 23,69</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>9,04; 16,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>6,19; 10,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>42,07; 58,13</t>
+          <t>4,68; 13,59</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>6,05; 13,88</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>6,22; 11,32</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>6,15; 10,53</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>9,6; 29,82</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>47,32%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>20,33%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>43,99%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>24,1%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>45,64%</t>
+          <t>17,49%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>18,07%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>16,72%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>16,21%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>23,36%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,62; 19,23</t>
+          <t>9,33; 23,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,32; 19,04</t>
+          <t>10,55; 23,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,45; 19,73</t>
+          <t>11,16; 20,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,08; 21,06</t>
+          <t>11,75; 20,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,0; 56,45</t>
+          <t>17,45; 31,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,55; 20,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,43; 21,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,35; 21,53</t>
+          <t>15,78; 25,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,52; 20,75</t>
+          <t>16,56; 25,53</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>36,8; 50,56</t>
+          <t>15,21; 22,16</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,03; 18,72</t>
+          <t>13,95; 19,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,67; 18,86</t>
+          <t>20,07; 29,04</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>14,53; 19,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>13,88; 19,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>40,08; 50,79</t>
+          <t>13,99; 22,0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>14,8; 22,27</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>14,32; 19,57</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>13,74; 19,11</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>20,19; 28,15</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>18,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>30,95%</t>
+          <t>25,58%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>20,25%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,69%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>40,71%</t>
+          <t>20,4%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>28,46%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>36,6%</t>
+          <t>19,44%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>20,18%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>18,95%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>17,84%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>27,06%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1302,114 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,8; 23,43</t>
+          <t>13,32; 24,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,56; 22,5</t>
+          <t>15,4; 26,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,41; 21,03</t>
+          <t>13,33; 21,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,85; 18,45</t>
+          <t>11,86; 18,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,72; 45,19</t>
+          <t>20,43; 31,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,05; 24,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,89; 23,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,06; 24,01</t>
+          <t>15,86; 25,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,33; 23,85</t>
+          <t>15,51; 24,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>30,22; 50,83</t>
+          <t>16,74; 24,2</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,82; 22,67</t>
+          <t>17,46; 24,08</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,26; 20,96</t>
+          <t>24,06; 33,23</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>16,34; 21,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>15,69; 20,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>28,11; 44,43</t>
+          <t>15,82; 23,35</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>16,91; 24,2</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>16,36; 21,75</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>15,57; 20,37</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>23,64; 30,84</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>18,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>46,6%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>43,05%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>44,79%</t>
+          <t>14,6%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>14,18%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>16,69%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>18,58%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,2313 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,85; 17,73</t>
+          <t>12,39; 18,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,36; 18,51</t>
+          <t>11,52; 21,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,51; 18,4</t>
+          <t>13,56; 25,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,87; 16,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,14; 52,67</t>
+          <t>12,37; 20,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,81; 17,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,33; 18,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,57; 18,25</t>
+          <t>11,65; 16,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,93; 17,71</t>
+          <t>10,27; 15,96</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>38,0; 48,46</t>
+          <t>11,14; 18,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,82; 16,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,97; 17,64</t>
+          <t>16,81; 25,89</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>14,56; 17,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>13,5; 16,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>40,5; 49,15</t>
+          <t>12,82; 16,87</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>11,73; 17,4</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>13,73; 20,28</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>16,0; 21,94</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15,07%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15,69%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15,42%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>13,84%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>21,47%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15,68%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>16,31%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>16,35%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15,79%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>22,06%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>15,38%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>16,01%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>15,9%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>14,84%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>21,77%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>12,82; 17,66</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12,87; 18,94</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13,31; 18,1</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11,64; 16,35</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>18,21; 26,34</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>13,96; 17,5</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>14,23; 18,37</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>14,58; 18,32</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>14,11; 17,78</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>19,77; 25,08</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>13,97; 16,93</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>14,4; 17,93</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>14,43; 17,5</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>13,51; 16,51</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>19,65; 24,23</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas &lt; 6 años (tasa de respuesta: 99,67%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>19761</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>29119</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>46580</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>60257</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>104993</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19362</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>42869</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>51617</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>69696</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>68064</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>39122</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>71988</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>98196</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>129954</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>173058</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8807; 35584</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>14916; 52083</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>29036; 71899</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>39903; 84816</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>50307; 208585</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8159; 37369</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>23040; 69583</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>32202; 76062</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>47525; 99440</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>32156; 147893</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>22869; 66321</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>46043; 105591</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>72450; 131827</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>99542; 170551</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>101797; 316179</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>93463</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>142302</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>178817</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>251395</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>238575</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>145400</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>205973</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>226671</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>253848</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>258485</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>238862</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>348275</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>405489</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>505243</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>497060</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>60755; 151735</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>98178; 221959</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>134038; 247349</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>190199; 337832</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>184164; 331645</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>112831; 183871</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>165005; 254423</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>186218; 271264</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>209160; 295881</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>215308; 311491</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>191149; 300485</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>285255; 429228</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>347406; 474586</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>428267; 595679</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>429700; 599026</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>84271</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>146149</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>145653</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>163410</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>209728</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>107660</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>153454</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>190525</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>237592</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>248898</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>191931</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>299602</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>336178</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>401002</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>458625</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>60708; 110947</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>110222; 191571</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>111993; 178156</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>129266; 204523</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>167563; 255997</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>84306; 134409</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>119322; 186784</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>156419; 226036</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>202036; 278750</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>210391; 290619</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>156194; 230541</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>251022; 359346</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>290297; 385855</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>349920; 457859</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>400539; 522551</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>322197</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>220385</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>157415</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>174325</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>291711</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>181921</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>112665</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>207919</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>613907</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>402305</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>270081</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>382244</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>261905; 391636</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>166199; 309337</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>116593; 215436</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>133322; 217752</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>243361; 337027</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>143160; 222515</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>84507; 143006</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>164684; 253560</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>539128; 709181</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>332762; 493576</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>222265; 328284</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>329293; 451438</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>426.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>367.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>458.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>445.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>519.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>519691</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>537954</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>528465</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>475062</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>727621</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>564132</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>584216</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>581479</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>561137</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>783366</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1083823</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1122170</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>1109944</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>1036199</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>1510987</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>442111; 608821</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>441122; 649116</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>456043; 620255</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>399329; 561160</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>617278; 892719</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>502275; 629820</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>509610; 657973</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>518213; 651479</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>501388; 631701</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>702029; 890740</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>983998; 1192874</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1009393; 1256915</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>1007336; 1221869</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>943458; 1153293</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>1363720; 1681949</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
